--- a/epl_fbref_2425.xlsx
+++ b/epl_fbref_2425.xlsx
@@ -1,25 +1,302 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylomu\.vscode\Python\git\y_footy_analytics_tho\v1\y_footy_analytics_tho_v1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B34429F-F4DB-48EE-9F30-4C2C577A8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Squad</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>Pts/MP</t>
+  </si>
+  <si>
+    <t>xG</t>
+  </si>
+  <si>
+    <t>xGA</t>
+  </si>
+  <si>
+    <t>xGD</t>
+  </si>
+  <si>
+    <t>xGD/90</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Top Team Scorer</t>
+  </si>
+  <si>
+    <t>Goalkeeper</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Mohamed Salah - 29</t>
+  </si>
+  <si>
+    <t>Alisson</t>
+  </si>
+  <si>
+    <t>→ Champions League via league finish</t>
+  </si>
+  <si>
+    <t>Kai Havertz - 9</t>
+  </si>
+  <si>
+    <t>David Raya</t>
+  </si>
+  <si>
+    <t>Erling Haaland - 22</t>
+  </si>
+  <si>
+    <t>Ederson</t>
+  </si>
+  <si>
+    <t>Cole Palmer - 15</t>
+  </si>
+  <si>
+    <t>Robert Sánchez</t>
+  </si>
+  <si>
+    <t>Alexander Isak - 23</t>
+  </si>
+  <si>
+    <t>Nick Pope</t>
+  </si>
+  <si>
+    <t>Ollie Watkins - 16</t>
+  </si>
+  <si>
+    <t>Emiliano Martínez</t>
+  </si>
+  <si>
+    <t>→ Europa League via league finish</t>
+  </si>
+  <si>
+    <t>Chris Wood - 20</t>
+  </si>
+  <si>
+    <t>Matz Sels</t>
+  </si>
+  <si>
+    <t>→ Conference League via league finish</t>
+  </si>
+  <si>
+    <t>Danny Welbeck, Kaoru Mitoma... - 10</t>
+  </si>
+  <si>
+    <t>Bart Verbruggen</t>
+  </si>
+  <si>
+    <t>Justin Kluivert - 12</t>
+  </si>
+  <si>
+    <t>Kepa Arrizabalaga</t>
+  </si>
+  <si>
+    <t>Bryan Mbeumo - 20</t>
+  </si>
+  <si>
+    <t>Mark Flekken</t>
+  </si>
+  <si>
+    <t>Raúl Jiménez - 12</t>
+  </si>
+  <si>
+    <t>Bernd Leno</t>
+  </si>
+  <si>
+    <t>Jean-Philippe Mateta - 14</t>
+  </si>
+  <si>
+    <t>Dean Henderson</t>
+  </si>
+  <si>
+    <t>→ Europa League via cup win</t>
+  </si>
+  <si>
+    <t>Iliman Ndiaye - 9</t>
+  </si>
+  <si>
+    <t>Jordan Pickford</t>
+  </si>
+  <si>
+    <t>Jarrod Bowen - 13</t>
+  </si>
+  <si>
+    <t>Alphonse Areola</t>
+  </si>
+  <si>
+    <t>Bruno Fernandes, Amad Diallo - 8</t>
+  </si>
+  <si>
+    <t>André Onana</t>
+  </si>
+  <si>
+    <t>Matheus Cunha - 15</t>
+  </si>
+  <si>
+    <t>José Sá</t>
+  </si>
+  <si>
+    <t>Brennan Johnson - 11</t>
+  </si>
+  <si>
+    <t>Guglielmo Vicario</t>
+  </si>
+  <si>
+    <t>→ Champions League</t>
+  </si>
+  <si>
+    <t>Jamie Vardy - 9</t>
+  </si>
+  <si>
+    <t>Mads Hermansen</t>
+  </si>
+  <si>
+    <t>Relegated</t>
+  </si>
+  <si>
+    <t>Liam Delap - 12</t>
+  </si>
+  <si>
+    <t>Arijanet Muric</t>
+  </si>
+  <si>
+    <t>Paul Onuachu - 4</t>
+  </si>
+  <si>
+    <t>Aaron Ramsdale</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Machester City</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Nott'ham Forest</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Manchester Utd</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +326,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +608,1234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>86</v>
+      </c>
+      <c r="H2">
+        <v>41</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>84</v>
+      </c>
+      <c r="K2">
+        <v>2.21</v>
+      </c>
+      <c r="L2">
+        <v>82.2</v>
+      </c>
+      <c r="M2">
+        <v>38.6</v>
+      </c>
+      <c r="N2">
+        <v>43.6</v>
+      </c>
+      <c r="O2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P2" s="1">
+        <v>60324</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>74</v>
+      </c>
+      <c r="K3">
+        <v>1.95</v>
+      </c>
+      <c r="L3">
+        <v>59.9</v>
+      </c>
+      <c r="M3">
+        <v>34.4</v>
+      </c>
+      <c r="N3">
+        <v>25.5</v>
+      </c>
+      <c r="O3">
+        <v>0.67</v>
+      </c>
+      <c r="P3" s="1">
+        <v>60251</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>71</v>
+      </c>
+      <c r="K4">
+        <v>1.87</v>
+      </c>
+      <c r="L4">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="M4">
+        <v>47.7</v>
+      </c>
+      <c r="N4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.54</v>
+      </c>
+      <c r="P4" s="1">
+        <v>52756</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>69</v>
+      </c>
+      <c r="K5">
+        <v>1.82</v>
+      </c>
+      <c r="L5">
+        <v>67.8</v>
+      </c>
+      <c r="M5">
+        <v>47.3</v>
+      </c>
+      <c r="N5">
+        <v>20.5</v>
+      </c>
+      <c r="O5">
+        <v>0.54</v>
+      </c>
+      <c r="P5" s="1">
+        <v>39672</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>68</v>
+      </c>
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>1.74</v>
+      </c>
+      <c r="L6">
+        <v>63.8</v>
+      </c>
+      <c r="M6">
+        <v>45.5</v>
+      </c>
+      <c r="N6">
+        <v>18.3</v>
+      </c>
+      <c r="O6">
+        <v>0.48</v>
+      </c>
+      <c r="P6" s="1">
+        <v>52187</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>58</v>
+      </c>
+      <c r="H7">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>1.74</v>
+      </c>
+      <c r="L7">
+        <v>56.1</v>
+      </c>
+      <c r="M7">
+        <v>50.1</v>
+      </c>
+      <c r="N7">
+        <v>5.9</v>
+      </c>
+      <c r="O7">
+        <v>0.16</v>
+      </c>
+      <c r="P7" s="1">
+        <v>42079</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>58</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <v>1.71</v>
+      </c>
+      <c r="L8">
+        <v>45.5</v>
+      </c>
+      <c r="M8">
+        <v>48.9</v>
+      </c>
+      <c r="N8">
+        <v>-3.4</v>
+      </c>
+      <c r="O8">
+        <v>-0.09</v>
+      </c>
+      <c r="P8" s="1">
+        <v>30059</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>61</v>
+      </c>
+      <c r="K9">
+        <v>1.61</v>
+      </c>
+      <c r="L9">
+        <v>58.7</v>
+      </c>
+      <c r="M9">
+        <v>54.6</v>
+      </c>
+      <c r="N9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O9">
+        <v>0.11</v>
+      </c>
+      <c r="P9" s="1">
+        <v>31798</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>58</v>
+      </c>
+      <c r="H10">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>1.47</v>
+      </c>
+      <c r="L10">
+        <v>64</v>
+      </c>
+      <c r="M10">
+        <v>48.5</v>
+      </c>
+      <c r="N10">
+        <v>15.5</v>
+      </c>
+      <c r="O10">
+        <v>0.41</v>
+      </c>
+      <c r="P10" s="1">
+        <v>11210</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>1.47</v>
+      </c>
+      <c r="L11">
+        <v>59</v>
+      </c>
+      <c r="M11">
+        <v>55.4</v>
+      </c>
+      <c r="N11">
+        <v>3.6</v>
+      </c>
+      <c r="O11">
+        <v>0.09</v>
+      </c>
+      <c r="P11" s="1">
+        <v>18742</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>54</v>
+      </c>
+      <c r="K12">
+        <v>1.42</v>
+      </c>
+      <c r="L12">
+        <v>49</v>
+      </c>
+      <c r="M12">
+        <v>47.2</v>
+      </c>
+      <c r="N12">
+        <v>1.8</v>
+      </c>
+      <c r="O12">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="1">
+        <v>26826</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>53</v>
+      </c>
+      <c r="K13">
+        <v>1.39</v>
+      </c>
+      <c r="L13">
+        <v>60.4</v>
+      </c>
+      <c r="M13">
+        <v>49.1</v>
+      </c>
+      <c r="N13">
+        <v>11.3</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>25064</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>-2</v>
+      </c>
+      <c r="J14">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>1.26</v>
+      </c>
+      <c r="L14">
+        <v>41.8</v>
+      </c>
+      <c r="M14">
+        <v>46.2</v>
+      </c>
+      <c r="N14">
+        <v>-4.5</v>
+      </c>
+      <c r="O14">
+        <v>-0.12</v>
+      </c>
+      <c r="P14" s="1">
+        <v>38439</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>62</v>
+      </c>
+      <c r="I15">
+        <v>-16</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L15">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>59.7</v>
+      </c>
+      <c r="N15">
+        <v>-12.7</v>
+      </c>
+      <c r="O15">
+        <v>-0.33</v>
+      </c>
+      <c r="P15" s="1">
+        <v>62463</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>54</v>
+      </c>
+      <c r="I16">
+        <v>-10</v>
+      </c>
+      <c r="J16">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L16">
+        <v>52.6</v>
+      </c>
+      <c r="M16">
+        <v>53.8</v>
+      </c>
+      <c r="N16">
+        <v>-1.3</v>
+      </c>
+      <c r="O16">
+        <v>-0.03</v>
+      </c>
+      <c r="P16" s="1">
+        <v>73747</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>-15</v>
+      </c>
+      <c r="J17">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L17">
+        <v>43.7</v>
+      </c>
+      <c r="M17">
+        <v>58.1</v>
+      </c>
+      <c r="N17">
+        <v>-14.5</v>
+      </c>
+      <c r="O17">
+        <v>-0.38</v>
+      </c>
+      <c r="P17" s="1">
+        <v>30695</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>64</v>
+      </c>
+      <c r="H18">
+        <v>65</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>58.8</v>
+      </c>
+      <c r="M18">
+        <v>63.3</v>
+      </c>
+      <c r="N18">
+        <v>-4.5</v>
+      </c>
+      <c r="O18">
+        <v>-0.12</v>
+      </c>
+      <c r="P18" s="1">
+        <v>61127</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>-47</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>0.66</v>
+      </c>
+      <c r="L19">
+        <v>32.6</v>
+      </c>
+      <c r="M19">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="N19">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="O19">
+        <v>-1.03</v>
+      </c>
+      <c r="P19" s="1">
+        <v>31448</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>82</v>
+      </c>
+      <c r="I20">
+        <v>-46</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L20">
+        <v>34.4</v>
+      </c>
+      <c r="M20">
+        <v>72.7</v>
+      </c>
+      <c r="N20">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="O20">
+        <v>-1.01</v>
+      </c>
+      <c r="P20" s="1">
+        <v>29742</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>-60</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>0.32</v>
+      </c>
+      <c r="L21">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M21">
+        <v>84.8</v>
+      </c>
+      <c r="N21">
+        <v>-52.1</v>
+      </c>
+      <c r="O21">
+        <v>-1.37</v>
+      </c>
+      <c r="P21" s="1">
+        <v>30882</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>